--- a/aug_pc_result/fdr_control.xlsx
+++ b/aug_pc_result/fdr_control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67DD906-09CC-4937-8225-A3D27C5B9C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D3109-FF7A-40EC-B472-2EC751875FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="459">
   <si>
     <t>Cauchy</t>
   </si>
@@ -828,6 +828,582 @@
   </si>
   <si>
     <t>0.267(0.022)</t>
+  </si>
+  <si>
+    <t>30.547(2.507)</t>
+  </si>
+  <si>
+    <t>41.859(3.895)</t>
+  </si>
+  <si>
+    <t>0.679(0.056)</t>
+  </si>
+  <si>
+    <t>0.93(0.087)</t>
+  </si>
+  <si>
+    <t>0.367(0.146)</t>
+  </si>
+  <si>
+    <t>0.121(0.106)</t>
+  </si>
+  <si>
+    <t>11.734(4.674)</t>
+  </si>
+  <si>
+    <t>1.578(1.378)</t>
+  </si>
+  <si>
+    <t>20.266(4.674)</t>
+  </si>
+  <si>
+    <t>11.422(1.378)</t>
+  </si>
+  <si>
+    <t>0.888(0.102)</t>
+  </si>
+  <si>
+    <t>0.5(0.158)</t>
+  </si>
+  <si>
+    <t>0.515(0.094)</t>
+  </si>
+  <si>
+    <t>7.669(7.534)</t>
+  </si>
+  <si>
+    <t>BCProcedure</t>
+  </si>
+  <si>
+    <t>32.344(1.921)</t>
+  </si>
+  <si>
+    <t>44.828(3.274)</t>
+  </si>
+  <si>
+    <t>0.719(0.043)</t>
+  </si>
+  <si>
+    <t>0.996(0.073)</t>
+  </si>
+  <si>
+    <t>0.222(0.147)</t>
+  </si>
+  <si>
+    <t>0.156(0.138)</t>
+  </si>
+  <si>
+    <t>7.109(4.714)</t>
+  </si>
+  <si>
+    <t>2.031(1.79)</t>
+  </si>
+  <si>
+    <t>24.891(4.714)</t>
+  </si>
+  <si>
+    <t>10.969(1.79)</t>
+  </si>
+  <si>
+    <t>0.726(0.264)</t>
+  </si>
+  <si>
+    <t>0.323(0.183)</t>
+  </si>
+  <si>
+    <t>0.402(0.098)</t>
+  </si>
+  <si>
+    <t>6.243(6.452)</t>
+  </si>
+  <si>
+    <t>30.438(2.403)</t>
+  </si>
+  <si>
+    <t>40.344(3.591)</t>
+  </si>
+  <si>
+    <t>0.676(0.053)</t>
+  </si>
+  <si>
+    <t>0.897(0.08)</t>
+  </si>
+  <si>
+    <t>0.493(0.105)</t>
+  </si>
+  <si>
+    <t>0.103(0.078)</t>
+  </si>
+  <si>
+    <t>15.781(3.345)</t>
+  </si>
+  <si>
+    <t>1.344(1.011)</t>
+  </si>
+  <si>
+    <t>16.219(3.345)</t>
+  </si>
+  <si>
+    <t>11.656(1.011)</t>
+  </si>
+  <si>
+    <t>0.924(0.052)</t>
+  </si>
+  <si>
+    <t>0.636(0.092)</t>
+  </si>
+  <si>
+    <t>0.61(0.072)</t>
+  </si>
+  <si>
+    <t>46.312(16.663)</t>
+  </si>
+  <si>
+    <t>30.234(2.428)</t>
+  </si>
+  <si>
+    <t>42.5(4.059)</t>
+  </si>
+  <si>
+    <t>0.672(0.054)</t>
+  </si>
+  <si>
+    <t>0.944(0.09)</t>
+  </si>
+  <si>
+    <t>0.325(0.108)</t>
+  </si>
+  <si>
+    <t>0.106(0.074)</t>
+  </si>
+  <si>
+    <t>10.391(3.444)</t>
+  </si>
+  <si>
+    <t>1.375(0.968)</t>
+  </si>
+  <si>
+    <t>21.609(3.444)</t>
+  </si>
+  <si>
+    <t>11.625(0.968)</t>
+  </si>
+  <si>
+    <t>0.876(0.091)</t>
+  </si>
+  <si>
+    <t>0.466(0.122)</t>
+  </si>
+  <si>
+    <t>0.489(0.081)</t>
+  </si>
+  <si>
+    <t>32.281(17.395)</t>
+  </si>
+  <si>
+    <t>AdaSyn</t>
+  </si>
+  <si>
+    <t>30.469(2.743)</t>
+  </si>
+  <si>
+    <t>42.047(3.99)</t>
+  </si>
+  <si>
+    <t>0.677(0.061)</t>
+  </si>
+  <si>
+    <t>0.934(0.089)</t>
+  </si>
+  <si>
+    <t>0.385(0.103)</t>
+  </si>
+  <si>
+    <t>0.139(0.098)</t>
+  </si>
+  <si>
+    <t>12.312(3.294)</t>
+  </si>
+  <si>
+    <t>1.812(1.271)</t>
+  </si>
+  <si>
+    <t>19.688(3.294)</t>
+  </si>
+  <si>
+    <t>11.188(1.271)</t>
+  </si>
+  <si>
+    <t>0.873(0.087)</t>
+  </si>
+  <si>
+    <t>0.526(0.112)</t>
+  </si>
+  <si>
+    <t>0.522(0.076)</t>
+  </si>
+  <si>
+    <t>13.632(9.869)</t>
+  </si>
+  <si>
+    <t>gt_graph</t>
+  </si>
+  <si>
+    <t>30.875(2.485)</t>
+  </si>
+  <si>
+    <t>42.172(3.688)</t>
+  </si>
+  <si>
+    <t>0.686(0.055)</t>
+  </si>
+  <si>
+    <t>0.937(0.082)</t>
+  </si>
+  <si>
+    <t>0.315(0.13)</t>
+  </si>
+  <si>
+    <t>0.114(0.099)</t>
+  </si>
+  <si>
+    <t>10.078(4.176)</t>
+  </si>
+  <si>
+    <t>1.484(1.285)</t>
+  </si>
+  <si>
+    <t>21.922(4.176)</t>
+  </si>
+  <si>
+    <t>11.516(1.285)</t>
+  </si>
+  <si>
+    <t>0.861(0.159)</t>
+  </si>
+  <si>
+    <t>0.447(0.153)</t>
+  </si>
+  <si>
+    <t>0.48(0.087)</t>
+  </si>
+  <si>
+    <t>7.78(7.067)</t>
+  </si>
+  <si>
+    <t>32.797(2.241)</t>
+  </si>
+  <si>
+    <t>45.141(3.968)</t>
+  </si>
+  <si>
+    <t>0.729(0.05)</t>
+  </si>
+  <si>
+    <t>1.003(0.088)</t>
+  </si>
+  <si>
+    <t>0.352(0.094)</t>
+  </si>
+  <si>
+    <t>0.274(0.129)</t>
+  </si>
+  <si>
+    <t>11.25(3.008)</t>
+  </si>
+  <si>
+    <t>3.562(1.68)</t>
+  </si>
+  <si>
+    <t>20.75(3.008)</t>
+  </si>
+  <si>
+    <t>9.438(1.68)</t>
+  </si>
+  <si>
+    <t>0.765(0.092)</t>
+  </si>
+  <si>
+    <t>0.474(0.099)</t>
+  </si>
+  <si>
+    <t>0.46(0.068)</t>
+  </si>
+  <si>
+    <t>19.419(11.745)</t>
+  </si>
+  <si>
+    <t>33.25(2.507)</t>
+  </si>
+  <si>
+    <t>45.859(4.429)</t>
+  </si>
+  <si>
+    <t>0.739(0.056)</t>
+  </si>
+  <si>
+    <t>1.019(0.098)</t>
+  </si>
+  <si>
+    <t>0.35(0.095)</t>
+  </si>
+  <si>
+    <t>0.285(0.135)</t>
+  </si>
+  <si>
+    <t>11.203(3.03)</t>
+  </si>
+  <si>
+    <t>3.703(1.752)</t>
+  </si>
+  <si>
+    <t>20.797(3.03)</t>
+  </si>
+  <si>
+    <t>9.297(1.752)</t>
+  </si>
+  <si>
+    <t>0.754(0.103)</t>
+  </si>
+  <si>
+    <t>0.472(0.099)</t>
+  </si>
+  <si>
+    <t>0.456(0.073)</t>
+  </si>
+  <si>
+    <t>36.1(16.02)</t>
+  </si>
+  <si>
+    <t>30.75(2.275)</t>
+  </si>
+  <si>
+    <t>41.531(3.842)</t>
+  </si>
+  <si>
+    <t>0.683(0.051)</t>
+  </si>
+  <si>
+    <t>0.923(0.085)</t>
+  </si>
+  <si>
+    <t>0.501(0.119)</t>
+  </si>
+  <si>
+    <t>0.121(0.074)</t>
+  </si>
+  <si>
+    <t>16.031(3.809)</t>
+  </si>
+  <si>
+    <t>1.578(0.956)</t>
+  </si>
+  <si>
+    <t>15.969(3.809)</t>
+  </si>
+  <si>
+    <t>11.422(0.956)</t>
+  </si>
+  <si>
+    <t>0.908(0.061)</t>
+  </si>
+  <si>
+    <t>0.639(0.108)</t>
+  </si>
+  <si>
+    <t>0.61(0.089)</t>
+  </si>
+  <si>
+    <t>46.074(13.188)</t>
+  </si>
+  <si>
+    <t>30.656(2.095)</t>
+  </si>
+  <si>
+    <t>40.328(3.4)</t>
+  </si>
+  <si>
+    <t>0.681(0.047)</t>
+  </si>
+  <si>
+    <t>0.896(0.076)</t>
+  </si>
+  <si>
+    <t>0.516(0.109)</t>
+  </si>
+  <si>
+    <t>0.125(0.078)</t>
+  </si>
+  <si>
+    <t>16.5(3.501)</t>
+  </si>
+  <si>
+    <t>1.625(1.016)</t>
+  </si>
+  <si>
+    <t>15.5(3.501)</t>
+  </si>
+  <si>
+    <t>11.375(1.016)</t>
+  </si>
+  <si>
+    <t>0.911(0.057)</t>
+  </si>
+  <si>
+    <t>0.652(0.097)</t>
+  </si>
+  <si>
+    <t>0.619(0.079)</t>
+  </si>
+  <si>
+    <t>52.513(12.711)</t>
+  </si>
+  <si>
+    <t>31.203(2.191)</t>
+  </si>
+  <si>
+    <t>42.875(3.416)</t>
+  </si>
+  <si>
+    <t>0.693(0.049)</t>
+  </si>
+  <si>
+    <t>0.953(0.076)</t>
+  </si>
+  <si>
+    <t>0.346(0.104)</t>
+  </si>
+  <si>
+    <t>0.138(0.089)</t>
+  </si>
+  <si>
+    <t>11.078(3.34)</t>
+  </si>
+  <si>
+    <t>1.797(1.157)</t>
+  </si>
+  <si>
+    <t>20.922(3.34)</t>
+  </si>
+  <si>
+    <t>11.203(1.157)</t>
+  </si>
+  <si>
+    <t>0.861(0.084)</t>
+  </si>
+  <si>
+    <t>0.486(0.11)</t>
+  </si>
+  <si>
+    <t>0.495(0.075)</t>
+  </si>
+  <si>
+    <t>67.037(18.198)</t>
+  </si>
+  <si>
+    <t>29.984(2.374)</t>
+  </si>
+  <si>
+    <t>41.656(3.622)</t>
+  </si>
+  <si>
+    <t>0.666(0.053)</t>
+  </si>
+  <si>
+    <t>0.926(0.08)</t>
+  </si>
+  <si>
+    <t>0.358(0.111)</t>
+  </si>
+  <si>
+    <t>0.121(0.075)</t>
+  </si>
+  <si>
+    <t>11.469(3.554)</t>
+  </si>
+  <si>
+    <t>1.578(0.973)</t>
+  </si>
+  <si>
+    <t>20.531(3.554)</t>
+  </si>
+  <si>
+    <t>11.422(0.973)</t>
+  </si>
+  <si>
+    <t>0.877(0.072)</t>
+  </si>
+  <si>
+    <t>0.5(0.115)</t>
+  </si>
+  <si>
+    <t>0.509(0.08)</t>
+  </si>
+  <si>
+    <t>48.938(16.113)</t>
+  </si>
+  <si>
+    <t>32.0(0.0)</t>
+  </si>
+  <si>
+    <t>45.0(0.0)</t>
+  </si>
+  <si>
+    <t>0.711(0.0)</t>
+  </si>
+  <si>
+    <t>1.0(0.0)</t>
+  </si>
+  <si>
+    <t>0.289(0.0)</t>
+  </si>
+  <si>
+    <t>0.104(0.005)</t>
+  </si>
+  <si>
+    <t>HybAdaProcedure</t>
+  </si>
+  <si>
+    <t>0.105(0.006)</t>
+  </si>
+  <si>
+    <t>0.129(0.017)</t>
+  </si>
+  <si>
+    <t>0.155(0.023)</t>
+  </si>
+  <si>
+    <t>0.063(0.005)</t>
+  </si>
+  <si>
+    <t>0.132(0.024)</t>
+  </si>
+  <si>
+    <t>0.068(0.006)</t>
+  </si>
+  <si>
+    <t>0.067(0.005)</t>
+  </si>
+  <si>
+    <t>0.098(0.015)</t>
+  </si>
+  <si>
+    <t>0.092(0.019)</t>
+  </si>
+  <si>
+    <t>0.127(0.016)</t>
+  </si>
+  <si>
+    <t>0.156(0.023)</t>
+  </si>
+  <si>
+    <t>0.063(0.004)</t>
+  </si>
+  <si>
+    <t>0.124(0.017)</t>
+  </si>
+  <si>
+    <t>0.068(0.005)</t>
   </si>
 </sst>
 </file>
@@ -903,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -913,9 +1489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1208,25 +1781,25 @@
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.9140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" customWidth="1"/>
+    <col min="19" max="22" width="11.08203125" customWidth="1"/>
+    <col min="23" max="23" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.9140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -1254,7 +1827,7 @@
       <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2844,6 +3417,2666 @@
         <v>22</v>
       </c>
       <c r="AE17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3">
+        <v>200</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>200</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H34" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3">
+        <v>200</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE45" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/aug_pc_result/fdr_control.xlsx
+++ b/aug_pc_result/fdr_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E47AD-92BC-42C2-B693-47EE97EA183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E7D40-4D3B-4E06-B282-7530D239C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1173">
   <si>
     <t>Cauchy</t>
   </si>
@@ -3249,6 +3249,306 @@
   </si>
   <si>
     <t>58.455(1.231)</t>
+  </si>
+  <si>
+    <t>31.844(0.444)</t>
+  </si>
+  <si>
+    <t>44.625(0.934)</t>
+  </si>
+  <si>
+    <t>0.708(0.01)</t>
+  </si>
+  <si>
+    <t>0.992(0.021)</t>
+  </si>
+  <si>
+    <t>0.023(0.047)</t>
+  </si>
+  <si>
+    <t>0.734(1.493)</t>
+  </si>
+  <si>
+    <t>31.266(1.493)</t>
+  </si>
+  <si>
+    <t>0.331(0.464)</t>
+  </si>
+  <si>
+    <t>0.041(0.078)</t>
+  </si>
+  <si>
+    <t>0.304(0.032)</t>
+  </si>
+  <si>
+    <t>573.318(97.207)</t>
+  </si>
+  <si>
+    <t>31.953(0.575)</t>
+  </si>
+  <si>
+    <t>44.906(1.151)</t>
+  </si>
+  <si>
+    <t>0.71(0.013)</t>
+  </si>
+  <si>
+    <t>0.998(0.026)</t>
+  </si>
+  <si>
+    <t>0.007(0.018)</t>
+  </si>
+  <si>
+    <t>0.006(0.028)</t>
+  </si>
+  <si>
+    <t>0.234(0.584)</t>
+  </si>
+  <si>
+    <t>0.078(0.37)</t>
+  </si>
+  <si>
+    <t>31.766(0.584)</t>
+  </si>
+  <si>
+    <t>12.922(0.37)</t>
+  </si>
+  <si>
+    <t>0.164(0.368)</t>
+  </si>
+  <si>
+    <t>0.014(0.034)</t>
+  </si>
+  <si>
+    <t>0.292(0.015)</t>
+  </si>
+  <si>
+    <t>490.032(106.249)</t>
+  </si>
+  <si>
+    <t>31.594(1.003)</t>
+  </si>
+  <si>
+    <t>44.094(2.173)</t>
+  </si>
+  <si>
+    <t>0.702(0.022)</t>
+  </si>
+  <si>
+    <t>0.98(0.048)</t>
+  </si>
+  <si>
+    <t>0.036(0.078)</t>
+  </si>
+  <si>
+    <t>0.001(0.01)</t>
+  </si>
+  <si>
+    <t>1.156(2.502)</t>
+  </si>
+  <si>
+    <t>30.844(2.502)</t>
+  </si>
+  <si>
+    <t>12.984(0.125)</t>
+  </si>
+  <si>
+    <t>0.232(0.423)</t>
+  </si>
+  <si>
+    <t>0.06(0.127)</t>
+  </si>
+  <si>
+    <t>0.314(0.055)</t>
+  </si>
+  <si>
+    <t>936.982(1824.727)</t>
+  </si>
+  <si>
+    <t>31.703(0.609)</t>
+  </si>
+  <si>
+    <t>44.438(1.097)</t>
+  </si>
+  <si>
+    <t>0.705(0.014)</t>
+  </si>
+  <si>
+    <t>0.988(0.024)</t>
+  </si>
+  <si>
+    <t>0.031(0.048)</t>
+  </si>
+  <si>
+    <t>1.0(1.543)</t>
+  </si>
+  <si>
+    <t>31.0(1.543)</t>
+  </si>
+  <si>
+    <t>0.389(0.49)</t>
+  </si>
+  <si>
+    <t>0.057(0.084)</t>
+  </si>
+  <si>
+    <t>0.311(0.033)</t>
+  </si>
+  <si>
+    <t>583.954(53.464)</t>
+  </si>
+  <si>
+    <t>72.984(3.619)</t>
+  </si>
+  <si>
+    <t>78.172(4.766)</t>
+  </si>
+  <si>
+    <t>0.785(0.039)</t>
+  </si>
+  <si>
+    <t>0.841(0.051)</t>
+  </si>
+  <si>
+    <t>0.277(0.041)</t>
+  </si>
+  <si>
+    <t>23.031(3.404)</t>
+  </si>
+  <si>
+    <t>1.562(1.207)</t>
+  </si>
+  <si>
+    <t>59.969(3.404)</t>
+  </si>
+  <si>
+    <t>1140.438(1.207)</t>
+  </si>
+  <si>
+    <t>0.937(0.05)</t>
+  </si>
+  <si>
+    <t>0.427(0.05)</t>
+  </si>
+  <si>
+    <t>0.95(0.003)</t>
+  </si>
+  <si>
+    <t>0.938(0.011)</t>
+  </si>
+  <si>
+    <t>76.297(2.653)</t>
+  </si>
+  <si>
+    <t>83.625(3.434)</t>
+  </si>
+  <si>
+    <t>0.82(0.029)</t>
+  </si>
+  <si>
+    <t>0.899(0.037)</t>
+  </si>
+  <si>
+    <t>0.175(0.033)</t>
+  </si>
+  <si>
+    <t>14.531(2.772)</t>
+  </si>
+  <si>
+    <t>0.359(0.675)</t>
+  </si>
+  <si>
+    <t>68.469(2.772)</t>
+  </si>
+  <si>
+    <t>1141.641(0.675)</t>
+  </si>
+  <si>
+    <t>0.977(0.041)</t>
+  </si>
+  <si>
+    <t>0.296(0.048)</t>
+  </si>
+  <si>
+    <t>0.944(0.002)</t>
+  </si>
+  <si>
+    <t>33.607(183.178)</t>
+  </si>
+  <si>
+    <t>56.25(5.357)</t>
+  </si>
+  <si>
+    <t>60.734(6.358)</t>
+  </si>
+  <si>
+    <t>0.605(0.058)</t>
+  </si>
+  <si>
+    <t>0.653(0.068)</t>
+  </si>
+  <si>
+    <t>0.524(0.04)</t>
+  </si>
+  <si>
+    <t>43.484(3.338)</t>
+  </si>
+  <si>
+    <t>2.203(1.198)</t>
+  </si>
+  <si>
+    <t>39.516(3.338)</t>
+  </si>
+  <si>
+    <t>1139.797(1.198)</t>
+  </si>
+  <si>
+    <t>0.951(0.027)</t>
+  </si>
+  <si>
+    <t>0.675(0.037)</t>
+  </si>
+  <si>
+    <t>0.966(0.003)</t>
+  </si>
+  <si>
+    <t>1.978(3.915)</t>
+  </si>
+  <si>
+    <t>67.078(4.056)</t>
+  </si>
+  <si>
+    <t>71.422(5.02)</t>
+  </si>
+  <si>
+    <t>0.721(0.044)</t>
+  </si>
+  <si>
+    <t>0.768(0.054)</t>
+  </si>
+  <si>
+    <t>0.393(0.037)</t>
+  </si>
+  <si>
+    <t>32.656(3.041)</t>
+  </si>
+  <si>
+    <t>1.609(1.107)</t>
+  </si>
+  <si>
+    <t>50.344(3.041)</t>
+  </si>
+  <si>
+    <t>1140.391(1.107)</t>
+  </si>
+  <si>
+    <t>0.954(0.031)</t>
+  </si>
+  <si>
+    <t>0.556(0.037)</t>
+  </si>
+  <si>
+    <t>0.874(0.018)</t>
   </si>
 </sst>
 </file>
@@ -3615,10 +3915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3637,18 +3937,19 @@
     <col min="13" max="14" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" customWidth="1"/>
     <col min="16" max="16" width="11.08203125" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="11.08203125" customWidth="1"/>
-    <col min="23" max="23" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.9140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -3736,9 +4037,8 @@
       <c r="AC1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3826,9 +4126,8 @@
       <c r="AC2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3916,9 +4215,8 @@
       <c r="AC3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -4006,9 +4304,8 @@
       <c r="AC4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -4096,9 +4393,8 @@
       <c r="AC5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4186,9 +4482,8 @@
       <c r="AC6" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -4276,9 +4571,8 @@
       <c r="AC7" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -4366,9 +4660,8 @@
       <c r="AC8" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -4456,9 +4749,8 @@
       <c r="AC9" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -4546,9 +4838,8 @@
       <c r="AC10" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -4636,9 +4927,8 @@
       <c r="AC11" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -4726,9 +5016,8 @@
       <c r="AC12" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4816,9 +5105,8 @@
       <c r="AC13" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -4906,9 +5194,8 @@
       <c r="AC14" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -4996,9 +5283,8 @@
       <c r="AC15" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -5086,9 +5372,8 @@
       <c r="AC16" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -5176,9 +5461,8 @@
       <c r="AC17" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -5266,9 +5550,8 @@
       <c r="AC18" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5356,9 +5639,8 @@
       <c r="AC19" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5446,9 +5728,8 @@
       <c r="AC20" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -5536,9 +5817,8 @@
       <c r="AC21" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -5626,9 +5906,8 @@
       <c r="AC22" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -5716,9 +5995,8 @@
       <c r="AC23" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -5806,9 +6084,8 @@
       <c r="AC24" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -5896,9 +6173,8 @@
       <c r="AC25" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -5986,9 +6262,8 @@
       <c r="AC26" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -6076,9 +6351,8 @@
       <c r="AC27" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -6166,9 +6440,8 @@
       <c r="AC28" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -6256,9 +6529,8 @@
       <c r="AC29" s="3">
         <v>0.05</v>
       </c>
-      <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -6346,9 +6618,8 @@
       <c r="AC30" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -6436,9 +6707,8 @@
       <c r="AC31" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -6526,9 +6796,8 @@
       <c r="AC32" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -6616,9 +6885,8 @@
       <c r="AC33" s="3">
         <v>0.1</v>
       </c>
-      <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -6706,9 +6974,8 @@
       <c r="AC34" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -6796,9 +7063,8 @@
       <c r="AC35" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -6886,9 +7152,8 @@
       <c r="AC36" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -6976,9 +7241,8 @@
       <c r="AC37" s="3">
         <v>0.2</v>
       </c>
-      <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -6992,10 +7256,10 @@
         <v>200</v>
       </c>
       <c r="E38" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>3</v>
@@ -7004,49 +7268,49 @@
         <v>8888</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>953</v>
+        <v>1073</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>954</v>
+        <v>1074</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>955</v>
+        <v>1075</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>956</v>
+        <v>1076</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>957</v>
+        <v>1077</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>958</v>
+        <v>1078</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>959</v>
+        <v>376</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>960</v>
+        <v>1079</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>961</v>
+        <v>378</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>962</v>
+        <v>1080</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>957</v>
+        <v>1077</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>963</v>
+        <v>1081</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>529</v>
+        <v>1082</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>964</v>
+        <v>1083</v>
       </c>
       <c r="X38" s="3" t="s">
         <v>18</v>
@@ -7058,17 +7322,16 @@
         <v>22</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>984</v>
+        <v>20</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD38" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -7082,10 +7345,10 @@
         <v>200</v>
       </c>
       <c r="E39" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>3</v>
@@ -7094,49 +7357,49 @@
         <v>8888</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>965</v>
+        <v>1084</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>966</v>
+        <v>1085</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>967</v>
+        <v>1086</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>968</v>
+        <v>1087</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>969</v>
+        <v>1088</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>29</v>
+        <v>1089</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>970</v>
+        <v>1090</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>376</v>
+        <v>1091</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>971</v>
+        <v>1092</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>757</v>
+        <v>1093</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>414</v>
+        <v>1094</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>969</v>
+        <v>1088</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>972</v>
+        <v>1095</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>605</v>
+        <v>1096</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>964</v>
+        <v>1097</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>18</v>
@@ -7148,17 +7411,16 @@
         <v>22</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>984</v>
+        <v>20</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD39" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -7172,10 +7434,10 @@
         <v>200</v>
       </c>
       <c r="E40" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>3</v>
@@ -7184,49 +7446,49 @@
         <v>8888</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>801</v>
+        <v>1098</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>802</v>
+        <v>1099</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>803</v>
+        <v>1100</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>804</v>
+        <v>1101</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>549</v>
+        <v>1102</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>720</v>
+        <v>1103</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>32</v>
+        <v>1104</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>29</v>
+        <v>1105</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>805</v>
+        <v>1106</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>806</v>
+        <v>1107</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>549</v>
+        <v>1102</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>807</v>
+        <v>1108</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>724</v>
+        <v>1109</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>964</v>
+        <v>1110</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>18</v>
@@ -7238,17 +7500,16 @@
         <v>22</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>984</v>
+        <v>20</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD40" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -7262,10 +7523,10 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -7274,49 +7535,49 @@
         <v>8888</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>973</v>
+        <v>1111</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>974</v>
+        <v>1112</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>975</v>
+        <v>1113</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>976</v>
+        <v>1114</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>977</v>
+        <v>1115</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>29</v>
+        <v>1103</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>978</v>
+        <v>1116</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>979</v>
+        <v>796</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>980</v>
+        <v>1117</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>981</v>
+        <v>1106</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>982</v>
+        <v>1118</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>977</v>
+        <v>1115</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>983</v>
+        <v>1119</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>702</v>
+        <v>1120</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>964</v>
+        <v>1121</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>18</v>
@@ -7328,17 +7589,16 @@
         <v>22</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>984</v>
+        <v>20</v>
       </c>
       <c r="AB41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD41" s="3"/>
+        <v>531</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -7364,49 +7624,49 @@
         <v>8888</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>907</v>
+        <v>955</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>908</v>
+        <v>956</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>909</v>
+        <v>957</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>910</v>
+        <v>958</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>911</v>
+        <v>959</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>912</v>
+        <v>960</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>913</v>
+        <v>961</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>914</v>
+        <v>962</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>909</v>
+        <v>957</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>18</v>
@@ -7418,17 +7678,16 @@
         <v>22</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>20</v>
+        <v>984</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD42" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
@@ -7454,49 +7713,49 @@
         <v>8888</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>917</v>
+        <v>965</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>918</v>
+        <v>966</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>919</v>
+        <v>967</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>920</v>
+        <v>968</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>921</v>
+        <v>969</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>922</v>
+        <v>970</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>923</v>
+        <v>376</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>924</v>
+        <v>971</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>925</v>
+        <v>757</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>926</v>
+        <v>414</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>921</v>
+        <v>969</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>927</v>
+        <v>972</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>18</v>
@@ -7508,17 +7767,16 @@
         <v>22</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>20</v>
+        <v>984</v>
       </c>
       <c r="AB43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD43" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
@@ -7544,49 +7802,49 @@
         <v>8888</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>929</v>
+        <v>801</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>930</v>
+        <v>802</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>931</v>
+        <v>803</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>932</v>
+        <v>804</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>933</v>
+        <v>549</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>550</v>
+        <v>720</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>934</v>
+        <v>32</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>935</v>
+        <v>801</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>936</v>
+        <v>29</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>937</v>
+        <v>805</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>938</v>
+        <v>806</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>933</v>
+        <v>549</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>939</v>
+        <v>807</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>529</v>
+        <v>724</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>18</v>
@@ -7598,17 +7856,16 @@
         <v>22</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>20</v>
+        <v>984</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD44" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -7634,49 +7891,49 @@
         <v>8888</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>950</v>
+        <v>982</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>605</v>
+        <v>702</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>18</v>
@@ -7688,17 +7945,16 @@
         <v>22</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>20</v>
+        <v>984</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD45" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
@@ -7724,49 +7980,49 @@
         <v>8888</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>861</v>
+        <v>905</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>862</v>
+        <v>906</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>863</v>
+        <v>907</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>864</v>
+        <v>908</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>865</v>
+        <v>909</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>867</v>
+        <v>911</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>868</v>
+        <v>912</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>870</v>
+        <v>914</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>865</v>
+        <v>909</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>871</v>
+        <v>915</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>529</v>
+        <v>618</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>872</v>
+        <v>916</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>18</v>
@@ -7784,11 +8040,10 @@
         <v>166</v>
       </c>
       <c r="AC46" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD46" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -7814,49 +8069,49 @@
         <v>8888</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>873</v>
+        <v>917</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>874</v>
+        <v>918</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>876</v>
+        <v>920</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>879</v>
+        <v>923</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>880</v>
+        <v>924</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>881</v>
+        <v>925</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>882</v>
+        <v>926</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>883</v>
+        <v>927</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>884</v>
+        <v>928</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>18</v>
@@ -7874,11 +8129,10 @@
         <v>166</v>
       </c>
       <c r="AC47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD47" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -7904,49 +8158,49 @@
         <v>8888</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>886</v>
+        <v>930</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>887</v>
+        <v>931</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>888</v>
+        <v>932</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>549</v>
+        <v>933</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>32</v>
+        <v>934</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>885</v>
+        <v>935</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>29</v>
+        <v>936</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>889</v>
+        <v>937</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>549</v>
+        <v>933</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>724</v>
+        <v>529</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>892</v>
+        <v>940</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>18</v>
@@ -7964,11 +8218,10 @@
         <v>166</v>
       </c>
       <c r="AC48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD48" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
@@ -7994,49 +8247,49 @@
         <v>8888</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>894</v>
+        <v>942</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>899</v>
+        <v>947</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>900</v>
+        <v>948</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>901</v>
+        <v>949</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>18</v>
@@ -8054,11 +8307,10 @@
         <v>166</v>
       </c>
       <c r="AC49" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD49" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -8084,49 +8336,49 @@
         <v>8888</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>985</v>
+        <v>861</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>986</v>
+        <v>862</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>987</v>
+        <v>863</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>988</v>
+        <v>864</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>989</v>
+        <v>865</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>29</v>
+        <v>550</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>990</v>
+        <v>866</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>29</v>
+        <v>867</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>991</v>
+        <v>868</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>627</v>
+        <v>869</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>549</v>
+        <v>870</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>989</v>
+        <v>865</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>992</v>
+        <v>871</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>993</v>
+        <v>872</v>
       </c>
       <c r="X50" s="3" t="s">
         <v>18</v>
@@ -8144,11 +8396,10 @@
         <v>166</v>
       </c>
       <c r="AC50" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD50" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -8174,49 +8425,49 @@
         <v>8888</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>994</v>
+        <v>873</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>995</v>
+        <v>874</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>996</v>
+        <v>875</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>997</v>
+        <v>876</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>998</v>
+        <v>877</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>29</v>
+        <v>550</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>999</v>
+        <v>878</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>29</v>
+        <v>879</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>627</v>
+        <v>881</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>549</v>
+        <v>882</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>998</v>
+        <v>877</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>1001</v>
+        <v>883</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>1002</v>
+        <v>529</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>1003</v>
+        <v>884</v>
       </c>
       <c r="X51" s="3" t="s">
         <v>18</v>
@@ -8234,11 +8485,10 @@
         <v>166</v>
       </c>
       <c r="AC51" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD51" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
@@ -8264,49 +8514,49 @@
         <v>8888</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1004</v>
+        <v>885</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1005</v>
+        <v>886</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1006</v>
+        <v>887</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1007</v>
+        <v>888</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>1008</v>
+        <v>549</v>
       </c>
       <c r="N52" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>1010</v>
-      </c>
       <c r="R52" s="3" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>1011</v>
+        <v>890</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>1008</v>
+        <v>549</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>1012</v>
+        <v>891</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>1013</v>
+        <v>892</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>18</v>
@@ -8324,11 +8574,10 @@
         <v>166</v>
       </c>
       <c r="AC52" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD52" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
@@ -8354,49 +8603,49 @@
         <v>8888</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1014</v>
+        <v>893</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1015</v>
+        <v>894</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1016</v>
+        <v>895</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1017</v>
+        <v>896</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>1018</v>
+        <v>897</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>29</v>
+        <v>550</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>1019</v>
+        <v>898</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>29</v>
+        <v>899</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>627</v>
+        <v>901</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>549</v>
+        <v>902</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>1018</v>
+        <v>897</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>1021</v>
+        <v>903</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>658</v>
+        <v>529</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>1022</v>
+        <v>904</v>
       </c>
       <c r="X53" s="3" t="s">
         <v>18</v>
@@ -8414,11 +8663,10 @@
         <v>166</v>
       </c>
       <c r="AC53" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD53" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -8486,7 +8734,7 @@
         <v>592</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>849</v>
+        <v>993</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>18</v>
@@ -8504,11 +8752,10 @@
         <v>166</v>
       </c>
       <c r="AC54" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD54" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -8576,7 +8823,7 @@
         <v>1002</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>849</v>
+        <v>1003</v>
       </c>
       <c r="X55" s="3" t="s">
         <v>18</v>
@@ -8594,11 +8841,10 @@
         <v>166</v>
       </c>
       <c r="AC55" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD55" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
@@ -8666,7 +8912,7 @@
         <v>658</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="X56" s="3" t="s">
         <v>18</v>
@@ -8684,11 +8930,10 @@
         <v>166</v>
       </c>
       <c r="AC56" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD56" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
@@ -8756,7 +9001,7 @@
         <v>658</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>18</v>
@@ -8774,11 +9019,10 @@
         <v>166</v>
       </c>
       <c r="AC57" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD57" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -8804,49 +9048,49 @@
         <v>8888</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>819</v>
+        <v>985</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>820</v>
+        <v>986</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>821</v>
+        <v>987</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>822</v>
+        <v>988</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>824</v>
+        <v>990</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>825</v>
+        <v>991</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>826</v>
+        <v>627</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>823</v>
+        <v>989</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>828</v>
+        <v>992</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>18</v>
@@ -8861,14 +9105,13 @@
         <v>20</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="AC58" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -8894,31 +9137,31 @@
         <v>8888</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>830</v>
+        <v>994</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>831</v>
+        <v>995</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>832</v>
+        <v>996</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>833</v>
+        <v>997</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>834</v>
+        <v>998</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>835</v>
+        <v>999</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>836</v>
+        <v>1000</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>627</v>
@@ -8927,16 +9170,16 @@
         <v>549</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>834</v>
+        <v>998</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>837</v>
+        <v>1001</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>658</v>
+        <v>1002</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>18</v>
@@ -8951,14 +9194,13 @@
         <v>20</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="AC59" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>37</v>
       </c>
@@ -8984,49 +9226,49 @@
         <v>8888</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>839</v>
+        <v>1004</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>840</v>
+        <v>1005</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>841</v>
+        <v>1006</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>842</v>
+        <v>1007</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>843</v>
+        <v>1008</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>378</v>
+        <v>1009</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>844</v>
+        <v>116</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>376</v>
+        <v>1010</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>846</v>
+        <v>1011</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>843</v>
+        <v>1008</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>847</v>
+        <v>1012</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>848</v>
+        <v>658</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>849</v>
+        <v>1023</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>18</v>
@@ -9041,14 +9283,13 @@
         <v>20</v>
       </c>
       <c r="AB60" s="3" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="AC60" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
@@ -9074,49 +9315,49 @@
         <v>8888</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>850</v>
+        <v>1014</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>851</v>
+        <v>1015</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>852</v>
+        <v>1016</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>853</v>
+        <v>1017</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>854</v>
+        <v>1018</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>855</v>
+        <v>1019</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>856</v>
+        <v>1020</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>857</v>
+        <v>627</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>858</v>
+        <v>549</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>854</v>
+        <v>1018</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>859</v>
+        <v>1021</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>860</v>
+        <v>1024</v>
       </c>
       <c r="X61" s="3" t="s">
         <v>18</v>
@@ -9131,14 +9372,13 @@
         <v>20</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="AC61" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -9164,49 +9404,49 @@
         <v>8888</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>786</v>
+        <v>144</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>787</v>
+        <v>825</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>788</v>
+        <v>826</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>789</v>
+        <v>827</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>790</v>
+        <v>828</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>18</v>
@@ -9224,11 +9464,10 @@
         <v>21</v>
       </c>
       <c r="AC62" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD62" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -9254,49 +9493,49 @@
         <v>8888</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>792</v>
+        <v>830</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>640</v>
+        <v>831</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>642</v>
+        <v>833</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>798</v>
+        <v>627</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>799</v>
+        <v>549</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>791</v>
+        <v>838</v>
       </c>
       <c r="X63" s="3" t="s">
         <v>18</v>
@@ -9314,11 +9553,10 @@
         <v>21</v>
       </c>
       <c r="AC63" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD63" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>37</v>
       </c>
@@ -9344,49 +9582,49 @@
         <v>8888</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>801</v>
+        <v>839</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>802</v>
+        <v>840</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>803</v>
+        <v>841</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>804</v>
+        <v>842</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>720</v>
+        <v>522</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>724</v>
+        <v>848</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="X64" s="3" t="s">
         <v>18</v>
@@ -9404,11 +9642,10 @@
         <v>21</v>
       </c>
       <c r="AC64" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD64" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>37</v>
       </c>
@@ -9434,49 +9671,49 @@
         <v>8888</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>814</v>
+        <v>855</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>710</v>
+        <v>116</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>712</v>
+        <v>857</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>702</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="X65" s="3" t="s">
         <v>18</v>
@@ -9494,11 +9731,10 @@
         <v>21</v>
       </c>
       <c r="AC65" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD65" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -9524,49 +9760,49 @@
         <v>8888</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>529</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>18</v>
@@ -9584,11 +9820,10 @@
         <v>21</v>
       </c>
       <c r="AC66" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD66" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -9614,49 +9849,49 @@
         <v>8888</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>751</v>
+        <v>640</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>753</v>
+        <v>642</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>755</v>
+        <v>795</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>376</v>
+        <v>796</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>414</v>
+        <v>799</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>605</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="X67" s="3" t="s">
         <v>18</v>
@@ -9674,11 +9909,10 @@
         <v>21</v>
       </c>
       <c r="AC67" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD67" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>37</v>
       </c>
@@ -9704,16 +9938,16 @@
         <v>8888</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>549</v>
@@ -9725,28 +9959,28 @@
         <v>32</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>549</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="V68" s="3" t="s">
         <v>724</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="X68" s="3" t="s">
         <v>18</v>
@@ -9764,11 +9998,10 @@
         <v>21</v>
       </c>
       <c r="AC68" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD68" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>37</v>
       </c>
@@ -9794,49 +10027,49 @@
         <v>8888</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>770</v>
+        <v>811</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>776</v>
+        <v>712</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
       <c r="V69" s="3" t="s">
         <v>702</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="X69" s="3" t="s">
         <v>18</v>
@@ -9854,11 +10087,10 @@
         <v>21</v>
       </c>
       <c r="AC69" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD69" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>0</v>
       </c>
@@ -9884,49 +10116,49 @@
         <v>8888</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>691</v>
+        <v>738</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>694</v>
+        <v>741</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>701</v>
+        <v>748</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>702</v>
+        <v>529</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="X70" s="3" t="s">
         <v>18</v>
@@ -9944,11 +10176,10 @@
         <v>21</v>
       </c>
       <c r="AC70" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD70" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -9974,49 +10205,49 @@
         <v>8888</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>710</v>
+        <v>376</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>713</v>
+        <v>414</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="V71" s="3" t="s">
         <v>605</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
       <c r="X71" s="3" t="s">
         <v>18</v>
@@ -10034,11 +10265,10 @@
         <v>21</v>
       </c>
       <c r="AC71" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD71" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>37</v>
       </c>
@@ -10064,16 +10294,16 @@
         <v>8888</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>549</v>
@@ -10085,28 +10315,28 @@
         <v>32</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>549</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>724</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>18</v>
@@ -10124,11 +10354,10 @@
         <v>21</v>
       </c>
       <c r="AC72" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD72" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>37</v>
       </c>
@@ -10154,49 +10383,49 @@
         <v>8888</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="V73" s="3" t="s">
         <v>702</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="X73" s="3" t="s">
         <v>18</v>
@@ -10214,11 +10443,10 @@
         <v>21</v>
       </c>
       <c r="AC73" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD73" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -10244,49 +10472,49 @@
         <v>8888</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>29</v>
+        <v>572</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>29</v>
+        <v>697</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>592</v>
+        <v>702</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="X74" s="3" t="s">
         <v>18</v>
@@ -10301,14 +10529,13 @@
         <v>20</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>531</v>
+        <v>21</v>
       </c>
       <c r="AC74" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD74" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>0</v>
       </c>
@@ -10334,49 +10561,49 @@
         <v>8888</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>29</v>
+        <v>710</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>549</v>
+        <v>713</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="X75" s="3" t="s">
         <v>18</v>
@@ -10391,14 +10618,13 @@
         <v>20</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>531</v>
+        <v>21</v>
       </c>
       <c r="AC75" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD75" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>37</v>
       </c>
@@ -10424,49 +10650,49 @@
         <v>8888</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>673</v>
+        <v>719</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="N76" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q76" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="R76" s="3" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>605</v>
+        <v>724</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>18</v>
@@ -10481,14 +10707,13 @@
         <v>20</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>531</v>
+        <v>21</v>
       </c>
       <c r="AC76" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD76" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>37</v>
       </c>
@@ -10514,49 +10739,49 @@
         <v>8888</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>29</v>
+        <v>572</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>29</v>
+        <v>732</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>627</v>
+        <v>734</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>549</v>
+        <v>735</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
       <c r="X77" s="3" t="s">
         <v>18</v>
@@ -10571,14 +10796,13 @@
         <v>20</v>
       </c>
       <c r="AB77" s="3" t="s">
-        <v>531</v>
+        <v>21</v>
       </c>
       <c r="AC77" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD77" s="3"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -10604,31 +10828,31 @@
         <v>8888</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>627</v>
@@ -10637,16 +10861,16 @@
         <v>549</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="V78" s="3" t="s">
         <v>592</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="X78" s="3" t="s">
         <v>18</v>
@@ -10664,11 +10888,10 @@
         <v>531</v>
       </c>
       <c r="AC78" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD78" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
@@ -10736,7 +10959,7 @@
         <v>592</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="X79" s="3" t="s">
         <v>18</v>
@@ -10754,11 +10977,10 @@
         <v>531</v>
       </c>
       <c r="AC79" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD79" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>37</v>
       </c>
@@ -10784,49 +11006,49 @@
         <v>8888</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>469</v>
+        <v>676</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="V80" s="3" t="s">
         <v>605</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="X80" s="3" t="s">
         <v>18</v>
@@ -10844,11 +11066,10 @@
         <v>531</v>
       </c>
       <c r="AC80" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD80" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>37</v>
       </c>
@@ -10874,31 +11095,31 @@
         <v>8888</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>627</v>
@@ -10907,16 +11128,16 @@
         <v>549</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>658</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>18</v>
@@ -10934,11 +11155,10 @@
         <v>531</v>
       </c>
       <c r="AC81" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD81" s="3"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -10964,49 +11184,49 @@
         <v>8888</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>574</v>
+        <v>29</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="X82" s="3" t="s">
         <v>18</v>
@@ -11024,11 +11244,10 @@
         <v>531</v>
       </c>
       <c r="AC82" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD82" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -11054,49 +11273,49 @@
         <v>8888</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>587</v>
+        <v>29</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>592</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>18</v>
@@ -11114,11 +11333,10 @@
         <v>531</v>
       </c>
       <c r="AC83" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD83" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -11144,49 +11362,49 @@
         <v>8888</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>600</v>
+        <v>469</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>603</v>
+        <v>647</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
       <c r="V84" s="3" t="s">
         <v>605</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="X84" s="3" t="s">
         <v>18</v>
@@ -11204,11 +11422,10 @@
         <v>531</v>
       </c>
       <c r="AC84" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD84" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -11234,49 +11451,49 @@
         <v>8888</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>613</v>
+        <v>29</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="X85" s="3" t="s">
         <v>18</v>
@@ -11294,11 +11511,10 @@
         <v>531</v>
       </c>
       <c r="AC85" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AD85" s="3"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -11324,49 +11540,49 @@
         <v>8888</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="X86" s="3" t="s">
         <v>18</v>
@@ -11384,11 +11600,10 @@
         <v>531</v>
       </c>
       <c r="AC86" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD86" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -11414,49 +11629,49 @@
         <v>8888</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="X87" s="3" t="s">
         <v>18</v>
@@ -11474,11 +11689,10 @@
         <v>531</v>
       </c>
       <c r="AC87" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD87" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>37</v>
       </c>
@@ -11504,49 +11718,49 @@
         <v>8888</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>32</v>
+        <v>599</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="X88" s="3" t="s">
         <v>18</v>
@@ -11564,11 +11778,10 @@
         <v>531</v>
       </c>
       <c r="AC88" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD88" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>37</v>
       </c>
@@ -11594,49 +11807,49 @@
         <v>8888</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>529</v>
+        <v>618</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>18</v>
@@ -11654,11 +11867,10 @@
         <v>531</v>
       </c>
       <c r="AC89" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AD89" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>0</v>
       </c>
@@ -11675,7 +11887,7 @@
         <v>50</v>
       </c>
       <c r="F90" s="3">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>3</v>
@@ -11684,49 +11896,49 @@
         <v>8888</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1025</v>
+        <v>517</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1026</v>
+        <v>518</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>1027</v>
+        <v>519</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>1028</v>
+        <v>520</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>1029</v>
+        <v>521</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>1030</v>
+        <v>523</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>1031</v>
+        <v>525</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>1032</v>
+        <v>526</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>1033</v>
+        <v>527</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>1029</v>
+        <v>521</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>1034</v>
+        <v>528</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>1035</v>
+        <v>529</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>1036</v>
+        <v>530</v>
       </c>
       <c r="X90" s="3" t="s">
         <v>18</v>
@@ -11734,23 +11946,20 @@
       <c r="Y90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z90" s="3">
-        <v>20</v>
+      <c r="Z90" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AB90" s="3" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="AC90" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD90" s="3" t="s">
-        <v>22</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>0</v>
       </c>
@@ -11767,7 +11976,7 @@
         <v>50</v>
       </c>
       <c r="F91" s="3">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -11776,49 +11985,49 @@
         <v>8888</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>1037</v>
+        <v>532</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1038</v>
+        <v>533</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>1039</v>
+        <v>534</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>1040</v>
+        <v>535</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>1041</v>
+        <v>536</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>1042</v>
+        <v>537</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>29</v>
+        <v>538</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>1043</v>
+        <v>539</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>1044</v>
+        <v>540</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>1041</v>
+        <v>536</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>1045</v>
+        <v>542</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>1046</v>
+        <v>543</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>1047</v>
+        <v>544</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>18</v>
@@ -11826,23 +12035,20 @@
       <c r="Y91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z91" s="3">
-        <v>20</v>
+      <c r="Z91" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AB91" s="3" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="AC91" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD91" s="3" t="s">
-        <v>22</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>37</v>
       </c>
@@ -11859,7 +12065,7 @@
         <v>50</v>
       </c>
       <c r="F92" s="3">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>3</v>
@@ -11868,49 +12074,49 @@
         <v>8888</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>1048</v>
+        <v>545</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1049</v>
+        <v>546</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>1050</v>
+        <v>547</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>1051</v>
+        <v>548</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>1052</v>
+        <v>549</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>1053</v>
+        <v>32</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>1054</v>
+        <v>545</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>1055</v>
+        <v>29</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>1056</v>
+        <v>551</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>1057</v>
+        <v>552</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>1052</v>
+        <v>549</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>1058</v>
+        <v>553</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>1059</v>
+        <v>529</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>1060</v>
+        <v>554</v>
       </c>
       <c r="X92" s="3" t="s">
         <v>18</v>
@@ -11918,23 +12124,20 @@
       <c r="Y92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z92" s="3">
-        <v>20</v>
+      <c r="Z92" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AB92" s="3" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="AC92" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="AD92" s="3" t="s">
-        <v>22</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>37</v>
       </c>
@@ -11951,7 +12154,7 @@
         <v>50</v>
       </c>
       <c r="F93" s="3">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>3</v>
@@ -11960,49 +12163,49 @@
         <v>8888</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1061</v>
+        <v>555</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>1062</v>
+        <v>556</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1063</v>
+        <v>557</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>1064</v>
+        <v>558</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>1065</v>
+        <v>559</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>1066</v>
+        <v>560</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>1067</v>
+        <v>562</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>1068</v>
+        <v>563</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>1069</v>
+        <v>564</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>1065</v>
+        <v>559</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>1070</v>
+        <v>565</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>1071</v>
+        <v>529</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>1072</v>
+        <v>566</v>
       </c>
       <c r="X93" s="3" t="s">
         <v>18</v>
@@ -12010,25 +12213,734 @@
       <c r="Y93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z93" s="3">
-        <v>20</v>
+      <c r="Z93" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AA93" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AB93" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>50</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="3">
+        <v>200</v>
+      </c>
+      <c r="E95" s="3">
+        <v>50</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC95" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>50</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC96" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="3">
+        <v>200</v>
+      </c>
+      <c r="E97" s="3">
+        <v>50</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC97" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>200</v>
+      </c>
+      <c r="E98" s="3">
+        <v>50</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AC93" s="3">
+      <c r="AC98" s="3">
         <v>0.01</v>
       </c>
-      <c r="AD93" s="3" t="s">
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="3">
+        <v>200</v>
+      </c>
+      <c r="E99" s="3">
+        <v>50</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z99" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="AA99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>50</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>50</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>8888</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC89">
-    <sortCondition ref="E1:E89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC93">
+    <sortCondition ref="E1:E93"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
